--- a/data/users.xlsx
+++ b/data/users.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
   </bookViews>
   <sheets>
     <sheet name="READ roles" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="20">
   <si>
     <t>rbrowning</t>
   </si>
@@ -79,6 +79,12 @@
   </si>
   <si>
     <t>2/7/2017 2:20:05.000000000 PM -05:05</t>
+  </si>
+  <si>
+    <t>MOSP_REPORT_RL</t>
+  </si>
+  <si>
+    <t>MOSP_USR_RL</t>
   </si>
 </sst>
 </file>
@@ -396,13 +402,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
@@ -489,6 +498,28 @@
         <v>10</v>
       </c>
       <c r="C8" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>2</v>
+      </c>
+      <c r="B9" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
         <v>17</v>
       </c>
     </row>
@@ -501,11 +532,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">

--- a/data/users.xlsx
+++ b/data/users.xlsx
@@ -405,12 +405,12 @@
   <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="14.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
